--- a/Team-Data/2015-16/4-9-2015-16.xlsx
+++ b/Team-Data/2015-16/4-9-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,34 +736,34 @@
         <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.608</v>
+        <v>0.595</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J2" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
         <v>28.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
         <v>15.7</v>
@@ -711,13 +778,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.8</v>
@@ -726,10 +793,10 @@
         <v>9.1</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.1</v>
@@ -738,13 +805,13 @@
         <v>18.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -756,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -774,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>30</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -804,13 +871,13 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
         <v>14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>30</v>
@@ -819,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -851,13 +918,13 @@
         <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.582</v>
+        <v>0.595</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -878,16 +945,16 @@
         <v>26.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.784</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
         <v>11.6</v>
@@ -899,7 +966,7 @@
         <v>45</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
@@ -920,25 +987,25 @@
         <v>20.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>7</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -956,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -965,13 +1032,13 @@
         <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,19 +1053,19 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
         <v>11</v>
       </c>
       <c r="BB3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.269</v>
+        <v>0.266</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,31 +1115,31 @@
         <v>38.2</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O4" t="n">
         <v>15.7</v>
       </c>
       <c r="P4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
@@ -1081,13 +1148,13 @@
         <v>42.5</v>
       </c>
       <c r="U4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1099,25 +1166,25 @@
         <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7</v>
+        <v>-7.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
         <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1126,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
@@ -1135,13 +1202,13 @@
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1150,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1168,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1180,10 +1247,10 @@
         <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.59</v>
+        <v>0.582</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1239,19 +1306,19 @@
         <v>10.6</v>
       </c>
       <c r="M5" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
@@ -1263,13 +1330,13 @@
         <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.4</v>
@@ -1281,25 +1348,25 @@
         <v>18.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1323,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
@@ -1338,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0.487</v>
+        <v>0.494</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,10 +1479,10 @@
         <v>38.5</v>
       </c>
       <c r="J6" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1424,7 +1491,7 @@
         <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
         <v>16.4</v>
@@ -1433,22 +1500,22 @@
         <v>20.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T6" t="n">
         <v>46.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1460,28 +1527,28 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA6" t="n">
         <v>18.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1493,10 +1560,10 @@
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>24</v>
@@ -1511,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1535,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.705</v>
+        <v>0.709</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J7" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M7" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O7" t="n">
         <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R7" t="n">
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.6</v>
@@ -1642,19 +1709,19 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1687,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
@@ -1699,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1714,13 +1781,13 @@
         <v>27</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J8" t="n">
         <v>84.40000000000001</v>
@@ -1785,28 +1852,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U8" t="n">
         <v>22.2</v>
@@ -1821,28 +1888,28 @@
         <v>3.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
         <v>19.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1854,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
@@ -1863,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,22 +1948,22 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
       </c>
       <c r="AW8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY8" t="n">
         <v>9</v>
@@ -1908,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="BB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>0.405</v>
+        <v>0.413</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
         <v>85.40000000000001</v>
@@ -1970,67 +2037,67 @@
         <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
         <v>22.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.2</v>
+        <v>-2.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
@@ -2039,19 +2106,19 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
@@ -2072,7 +2139,7 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
         <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.526</v>
+        <v>0.538</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>86.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L10" t="n">
         <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T10" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U10" t="n">
         <v>19.4</v>
@@ -2179,7 +2246,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>3.6</v>
@@ -2191,28 +2258,28 @@
         <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
         <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>18</v>
@@ -2221,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>11</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2266,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -2319,10 +2386,10 @@
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="J11" t="n">
-        <v>87.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.488</v>
@@ -2331,37 +2398,37 @@
         <v>13.1</v>
       </c>
       <c r="M11" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.761</v>
       </c>
       <c r="R11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U11" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
         <v>6.1</v>
@@ -2370,19 +2437,19 @@
         <v>4.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2418,13 +2485,13 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
@@ -2448,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.487</v>
+        <v>0.481</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
@@ -2516,10 +2583,10 @@
         <v>30.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P12" t="n">
         <v>29.7</v>
@@ -2528,7 +2595,7 @@
         <v>0.695</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
         <v>31.6</v>
@@ -2537,19 +2604,19 @@
         <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2558,22 +2625,22 @@
         <v>22.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
         <v>10</v>
@@ -2585,16 +2652,16 @@
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
@@ -2624,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>13</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.538</v>
+        <v>0.532</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2689,7 +2756,7 @@
         <v>85.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
         <v>8</v>
@@ -2701,22 +2768,22 @@
         <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T13" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U13" t="n">
         <v>20.9</v>
@@ -2731,10 +2798,10 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>20.5</v>
@@ -2743,31 +2810,31 @@
         <v>101.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2776,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2788,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT13" t="n">
         <v>13</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>0.641</v>
+        <v>0.646</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2868,25 +2935,25 @@
         <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O14" t="n">
         <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.696</v>
@@ -2901,7 +2968,7 @@
         <v>42.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
         <v>13</v>
@@ -2910,7 +2977,7 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
@@ -2922,13 +2989,13 @@
         <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
         <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -3003,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" t="n">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,7 +3117,7 @@
         <v>35.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.414</v>
@@ -3059,28 +3126,28 @@
         <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R15" t="n">
         <v>10.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
         <v>18</v>
@@ -3089,7 +3156,7 @@
         <v>13.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.2</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3149,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3158,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3173,16 +3240,16 @@
         <v>24</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3229,22 +3296,22 @@
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K16" t="n">
         <v>0.442</v>
       </c>
       <c r="L16" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M16" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
         <v>19.6</v>
@@ -3253,22 +3320,22 @@
         <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R16" t="n">
         <v>11.1</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
         <v>8.800000000000001</v>
@@ -3283,37 +3350,37 @@
         <v>21.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
         <v>11</v>
       </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,16 +3398,16 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
         <v>8</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>9</v>
       </c>
       <c r="AS16" t="n">
         <v>30</v>
       </c>
       <c r="AT16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3349,13 +3416,13 @@
         <v>6</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.577</v>
+        <v>0.582</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,19 +3481,19 @@
         <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
@@ -3435,16 +3502,16 @@
         <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.739</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S17" t="n">
         <v>34.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U17" t="n">
         <v>20.9</v>
@@ -3462,34 +3529,34 @@
         <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA17" t="n">
         <v>19.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>27</v>
@@ -3501,10 +3568,10 @@
         <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>19</v>
@@ -3516,28 +3583,28 @@
         <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
         <v>23</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J18" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
         <v>15.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.199999999999999</v>
@@ -3644,34 +3711,34 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3686,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>20</v>
@@ -3710,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3781,31 +3848,31 @@
         <v>81.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R19" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T19" t="n">
         <v>41.6</v>
@@ -3820,25 +3887,25 @@
         <v>7.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC19" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3850,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3868,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
@@ -3880,19 +3947,19 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>14</v>
@@ -3907,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.448</v>
@@ -3969,7 +4036,7 @@
         <v>8.5</v>
       </c>
       <c r="M20" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.359</v>
@@ -3981,22 +4048,22 @@
         <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
         <v>33.4</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4011,22 +4078,22 @@
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4038,46 +4105,46 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS20" t="n">
         <v>16</v>
       </c>
-      <c r="AN20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AT20" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
@@ -4086,16 +4153,16 @@
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4154,19 +4221,19 @@
         <v>21.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O21" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>34.1</v>
@@ -4178,10 +4245,10 @@
         <v>20.5</v>
       </c>
       <c r="V21" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
         <v>5.7</v>
@@ -4190,40 +4257,40 @@
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
         <v>24</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -4235,7 +4302,7 @@
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
         <v>25</v>
@@ -4244,19 +4311,19 @@
         <v>2</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
       </c>
       <c r="AV21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW21" t="n">
         <v>30</v>
@@ -4265,16 +4332,16 @@
         <v>9</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -4309,13 +4376,13 @@
         <v>79</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.671</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,16 +4391,16 @@
         <v>41.2</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="N22" t="n">
         <v>0.35</v>
@@ -4345,7 +4412,7 @@
         <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="R22" t="n">
         <v>13</v>
@@ -4360,7 +4427,7 @@
         <v>23</v>
       </c>
       <c r="V22" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.4</v>
@@ -4369,22 +4436,22 @@
         <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
         <v>110.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>2</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
@@ -4453,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>0.436</v>
+        <v>0.43</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J23" t="n">
-        <v>86.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
         <v>15.3</v>
       </c>
       <c r="P23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.761</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
         <v>8.1</v>
@@ -4551,22 +4618,22 @@
         <v>5.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
         <v>-1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4590,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4605,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR23" t="n">
         <v>16</v>
       </c>
-      <c r="AR23" t="n">
-        <v>17</v>
-      </c>
       <c r="AS23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT23" t="n">
         <v>16</v>
@@ -4620,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4632,13 +4699,13 @@
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" t="n">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4703,13 +4770,13 @@
         <v>0.336</v>
       </c>
       <c r="O24" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P24" t="n">
         <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.694</v>
+        <v>0.696</v>
       </c>
       <c r="R24" t="n">
         <v>9.5</v>
@@ -4721,10 +4788,10 @@
         <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.199999999999999</v>
@@ -4745,10 +4812,10 @@
         <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.1</v>
+        <v>-10.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4778,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,10 +4854,10 @@
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4805,7 +4872,7 @@
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
@@ -4817,10 +4884,10 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -4855,25 +4922,25 @@
         <v>79</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>0.278</v>
+        <v>0.266</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L25" t="n">
         <v>9.1</v>
@@ -4882,28 +4949,28 @@
         <v>25.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
         <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T25" t="n">
         <v>44.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V25" t="n">
         <v>17.2</v>
@@ -4918,19 +4985,19 @@
         <v>5.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA25" t="n">
         <v>21.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.8</v>
+        <v>-7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4960,25 +5027,25 @@
         <v>12</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP25" t="n">
         <v>13</v>
       </c>
-      <c r="AP25" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>6</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
@@ -4987,10 +5054,10 @@
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY25" t="n">
         <v>22</v>
@@ -4999,13 +5066,13 @@
         <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5037,13 +5104,13 @@
         <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="n">
-        <v>0.525</v>
+        <v>0.538</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,16 +5119,16 @@
         <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="M26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.371</v>
@@ -5070,7 +5137,7 @@
         <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
         <v>0.752</v>
@@ -5079,25 +5146,25 @@
         <v>11.6</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="T26" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U26" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V26" t="n">
         <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
         <v>21.8</v>
@@ -5106,10 +5173,10 @@
         <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5118,28 +5185,28 @@
         <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
@@ -5151,13 +5218,13 @@
         <v>15</v>
       </c>
       <c r="AQ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5166,10 +5233,10 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5219,13 +5286,13 @@
         <v>79</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.405</v>
+        <v>0.392</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5243,7 +5310,7 @@
         <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N27" t="n">
         <v>0.359</v>
@@ -5255,25 +5322,25 @@
         <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R27" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U27" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V27" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.4</v>
@@ -5282,31 +5349,31 @@
         <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA27" t="n">
         <v>22</v>
       </c>
       <c r="AB27" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
@@ -5318,13 +5385,13 @@
         <v>6</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
@@ -5336,13 +5403,13 @@
         <v>26</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5357,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
         <v>65</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.833</v>
+        <v>0.823</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5425,16 +5492,16 @@
         <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.804</v>
@@ -5446,7 +5513,7 @@
         <v>34.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.7</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
@@ -5536,7 +5603,7 @@
         <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5607,40 +5674,40 @@
         <v>8.6</v>
       </c>
       <c r="M29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P29" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
         <v>10.1</v>
       </c>
       <c r="S29" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U29" t="n">
         <v>18.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5.4</v>
@@ -5649,22 +5716,22 @@
         <v>19.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC29" t="n">
         <v>4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
         <v>5</v>
@@ -5679,7 +5746,7 @@
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
@@ -5733,7 +5800,7 @@
         <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
         <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
         <v>17.3</v>
@@ -5804,22 +5871,22 @@
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T30" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X30" t="n">
         <v>5.2</v>
@@ -5828,19 +5895,19 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA30" t="n">
         <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5861,22 +5928,22 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5894,10 +5961,10 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5906,7 +5973,7 @@
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J31" t="n">
         <v>85.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M31" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O31" t="n">
         <v>16.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S31" t="n">
         <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.4</v>
@@ -6004,34 +6071,34 @@
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="AC31" t="n">
         <v>-1</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
@@ -6055,7 +6122,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6070,7 +6137,7 @@
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6082,19 +6149,19 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2015-16</t>
+          <t>2016-04-09</t>
         </is>
       </c>
     </row>
